--- a/Customer Form.xlsx
+++ b/Customer Form.xlsx
@@ -1,67 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdEl-Rahman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\PythonProjects\Customers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0377B1E2-8E90-421E-A987-55B966446C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BB0A16-DC94-4B39-862E-368E36C3F7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="480" windowWidth="21600" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$D$1:$M$12</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>اسم العميل</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>السيد فاروق</t>
   </si>
   <si>
     <t>اسم مسئول المبيعات</t>
   </si>
   <si>
+    <t>على محمد الحفناوى</t>
+  </si>
+  <si>
     <t>مسئول التواصل</t>
   </si>
   <si>
+    <t>أيمن فاروق</t>
+  </si>
+  <si>
     <t>العنوان</t>
   </si>
   <si>
+    <t>شبرا مصر</t>
+  </si>
+  <si>
     <t>رقم التليفون</t>
   </si>
   <si>
+    <t>01005281253</t>
+  </si>
+  <si>
+    <t>01227427092</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>E.MAIL</t>
   </si>
   <si>
     <t>نوع العميل</t>
   </si>
   <si>
+    <t>مصنع</t>
+  </si>
+  <si>
+    <t>اصناف الغزل</t>
+  </si>
+  <si>
+    <t>['قطن' 'ليكرا']</t>
+  </si>
+  <si>
     <t>اصناف اوميجا</t>
   </si>
   <si>
-    <t>اصناف الغزل</t>
+    <t>[]</t>
   </si>
   <si>
     <t>اصناف مصنع القماش</t>
+  </si>
+  <si>
+    <t>الحجم</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +105,15 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="26"/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Traditional Arabic"/>
       <family val="1"/>
@@ -104,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,22 +162,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,217 +543,227 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="J3:R16"/>
+  <dimension ref="D1:M12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:R11"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="25.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="13" width="10.28515625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="3" t="s">
+    <row r="1" spans="4:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="10:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J5" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="4:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J6" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J7" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J8" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J12" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="J13" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="10:18" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="J14" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="10:18" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="J15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="10:18" ht="24.75" x14ac:dyDescent="0.6">
-      <c r="J16" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="4:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="D1:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E10:M10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;36 بيانات مفصله للعميل</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>